--- a/biology/Zoologie/Alydus_calcaratus/Alydus_calcaratus.xlsx
+++ b/biology/Zoologie/Alydus_calcaratus/Alydus_calcaratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alydus calcaratus est une espèce d'insectes hémiptères hétéroptères (punaises) de la famille des Alydidae, sous-famille des Alydinae et du genre Alydus. C'est l'espèce type pour le genre.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago
 Environ 1 cm de longueur. Forme élancée de couleur très foncée. Le 4e article des antennes bien plus long que les 3 autres. Le tibia postérieur est droit, au moins aussi long que les fémurs.
@@ -551,7 +565,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son vol est très rapide par temps ensoleillé.
 Elle se nourrit du suc des plantes et sur des animaux morts (insectes, parfois aussi petits vertébrés).
@@ -583,7 +599,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fréquente les pelouses sèches.
 </t>
@@ -614,14 +632,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Alydus calcaratus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Cimex calcaratus[1].
-Synonymie
-Cimex calcaratus Linnaeus, 1758
-Coriscus calcaratus (Linnaeus, 1758)
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Alydus calcaratus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Cimex calcaratus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alydus_calcaratus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alydus_calcaratus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cimex calcaratus Linnaeus, 1758
+Coriscus calcaratus (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alydus_calcaratus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alydus_calcaratus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Alydus calcaratus calcaratus (Linnaeus, 1758)
 Alydus calcaratus hirsutus Kolenati, 1845</t>
         </is>
